--- a/data/Test plan.xlsx
+++ b/data/Test plan.xlsx
@@ -8,14 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gliga\eclipse-workspace\SeleniumProjekat\SeleniumRepo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2890A6B8-2C07-47D6-89CA-C347623DB23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5285A819-BE37-483D-8789-E54C27FA3E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="1716" windowWidth="15888" windowHeight="9732" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="TC1" sheetId="2" r:id="rId2"/>
     <sheet name="TC2" sheetId="3" r:id="rId3"/>
+    <sheet name="TC3" sheetId="4" r:id="rId4"/>
+    <sheet name="TC4" sheetId="5" r:id="rId5"/>
+    <sheet name="TC5" sheetId="6" r:id="rId6"/>
+    <sheet name="TC6" sheetId="7" r:id="rId7"/>
+    <sheet name="TC7" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="71">
   <si>
     <t>Test case</t>
   </si>
@@ -147,6 +152,99 @@
   </si>
   <si>
     <t>Invalid email address.</t>
+  </si>
+  <si>
+    <t>tc3</t>
+  </si>
+  <si>
+    <t>tc4</t>
+  </si>
+  <si>
+    <t>tc5</t>
+  </si>
+  <si>
+    <t>Verify that "ORDER HISTORY AND DETAILS" button will show Order history page</t>
+  </si>
+  <si>
+    <t>tc6</t>
+  </si>
+  <si>
+    <t>tc7</t>
+  </si>
+  <si>
+    <t>Verify that "MY CREDIT SLIPS" button will show Credit slips  page</t>
+  </si>
+  <si>
+    <t>Verify that "MY ADDRESSES" button will show Addreses page</t>
+  </si>
+  <si>
+    <t>Verify that "MY PERSONAL INFORMATION" button will show personal information page</t>
+  </si>
+  <si>
+    <t>Verify that "MY WISHLIST" button will show wishlist page</t>
+  </si>
+  <si>
+    <t>User is  signed in</t>
+  </si>
+  <si>
+    <t>Click on profile  button</t>
+  </si>
+  <si>
+    <t>Click on "ORDER HISTORY AND DETAILS" button</t>
+  </si>
+  <si>
+    <t>ORDER HISTORY page is shown</t>
+  </si>
+  <si>
+    <t>ORDER HISTORY</t>
+  </si>
+  <si>
+    <t>Click on "MY CREDIT SLIPS" button</t>
+  </si>
+  <si>
+    <t>Credit slips page is shown</t>
+  </si>
+  <si>
+    <t>Verify that "MY CREDIT SLIPS" button will show Credit slips page</t>
+  </si>
+  <si>
+    <t>CREDIT SLIPS</t>
+  </si>
+  <si>
+    <t>Verify that "MY ADDRESSES" button will show Addresses page</t>
+  </si>
+  <si>
+    <t>Click on "MY ADDRESSES" button</t>
+  </si>
+  <si>
+    <t>Addresses page is shown</t>
+  </si>
+  <si>
+    <t>Verify that "MY PERSONAL INFORMATION" button will show Addresses page</t>
+  </si>
+  <si>
+    <t>Click on "MY PERSONAL INFORMATION" button</t>
+  </si>
+  <si>
+    <t>Personal information page is shown</t>
+  </si>
+  <si>
+    <t>YOUR PERSONAL INFORMATION</t>
+  </si>
+  <si>
+    <t>Verify that "MY WISHLIST" button will show Addresses page</t>
+  </si>
+  <si>
+    <t>Click on "MY WISHLIST" button</t>
+  </si>
+  <si>
+    <t>Wishlist page is shown</t>
+  </si>
+  <si>
+    <t>MY ADDRESSES</t>
+  </si>
+  <si>
+    <t>MY WISHLISTS</t>
   </si>
 </sst>
 </file>
@@ -502,15 +600,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -543,7 +641,48 @@
         <v>29</v>
       </c>
     </row>
+    <row r="4" spans="1:4" ht="49.2" customHeight="1">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.8">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.8">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.8">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -689,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13C6CA2-3305-4C47-A480-C36F50C5CF71}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -725,7 +864,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -810,7 +949,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30.6">
+    <row r="11" spans="1:7" ht="20.399999999999999">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -842,4 +981,514 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53627CBA-A9EA-4375-A97F-DE56E1590C9D}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="C11" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351C5F0A-8086-409C-9CD3-18E618099D4E}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="C11" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85ED7188-B8F0-45DF-A7BC-6468A768B8F0}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="C11" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FDCA074-8CFE-48F4-A660-E44FD3E1CFE6}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="C11" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A775B754-6E45-4D43-AF90-7AAD8A80EC04}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="C11" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/Test plan.xlsx
+++ b/data/Test plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gliga\eclipse-workspace\SeleniumProjekat\SeleniumRepo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5285A819-BE37-483D-8789-E54C27FA3E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A064DC03-8F94-4ECD-8079-67EEFFC3E7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="1716" windowWidth="15888" windowHeight="9732" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6108" yWindow="2124" windowWidth="15888" windowHeight="9732" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,10 @@
     <sheet name="TC5" sheetId="6" r:id="rId6"/>
     <sheet name="TC6" sheetId="7" r:id="rId7"/>
     <sheet name="TC7" sheetId="8" r:id="rId8"/>
+    <sheet name="TC8" sheetId="10" r:id="rId9"/>
+    <sheet name="TC9" sheetId="11" r:id="rId10"/>
+    <sheet name="TC10" sheetId="12" r:id="rId11"/>
+    <sheet name="TC11" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="116">
   <si>
     <t>Test case</t>
   </si>
@@ -220,9 +224,6 @@
     <t>Addresses page is shown</t>
   </si>
   <si>
-    <t>Verify that "MY PERSONAL INFORMATION" button will show Addresses page</t>
-  </si>
-  <si>
     <t>Click on "MY PERSONAL INFORMATION" button</t>
   </si>
   <si>
@@ -232,9 +233,6 @@
     <t>YOUR PERSONAL INFORMATION</t>
   </si>
   <si>
-    <t>Verify that "MY WISHLIST" button will show Addresses page</t>
-  </si>
-  <si>
     <t>Click on "MY WISHLIST" button</t>
   </si>
   <si>
@@ -245,13 +243,154 @@
   </si>
   <si>
     <t>MY WISHLISTS</t>
+  </si>
+  <si>
+    <t>tc8</t>
+  </si>
+  <si>
+    <t>Verify that user can update address</t>
+  </si>
+  <si>
+    <t>tc9</t>
+  </si>
+  <si>
+    <t>Verify that user can add address</t>
+  </si>
+  <si>
+    <t>tc10</t>
+  </si>
+  <si>
+    <t>Verify that user can delete address</t>
+  </si>
+  <si>
+    <t>Click on "Update" button</t>
+  </si>
+  <si>
+    <t>Enter new address in address input field</t>
+  </si>
+  <si>
+    <t>Marka Miljanova</t>
+  </si>
+  <si>
+    <t>Click on "Save" button</t>
+  </si>
+  <si>
+    <t>Address is changed and showed in "MY ADDRESS" area</t>
+  </si>
+  <si>
+    <t>Verify that "MY PERSONAL INFORMATION" button will show personal informations  page</t>
+  </si>
+  <si>
+    <t>Clear address input field</t>
+  </si>
+  <si>
+    <t>Click on"Delete" button</t>
+  </si>
+  <si>
+    <t>Click on"OK" button in pop up alert window</t>
+  </si>
+  <si>
+    <t>Address is deleted and doesen't exists in "MY ADDRESS" area</t>
+  </si>
+  <si>
+    <t>Click on"Add new addres" button</t>
+  </si>
+  <si>
+    <t>Enter address in address input field</t>
+  </si>
+  <si>
+    <t>Enter city in city input field</t>
+  </si>
+  <si>
+    <t>Select state from State drop menu</t>
+  </si>
+  <si>
+    <t>Enter Zip/Postal code inZip/Postal code input field</t>
+  </si>
+  <si>
+    <t>Select country from country drop menu</t>
+  </si>
+  <si>
+    <t>Enter home phone in home phone input field</t>
+  </si>
+  <si>
+    <t>Enter mobile phone in mobile phone input field</t>
+  </si>
+  <si>
+    <t>New address is created and shown in "MY ADDRESS" area</t>
+  </si>
+  <si>
+    <t>Enter first name in first name input field</t>
+  </si>
+  <si>
+    <t>Enter last name in last name input field</t>
+  </si>
+  <si>
+    <t>Marko</t>
+  </si>
+  <si>
+    <t>Nikolic</t>
+  </si>
+  <si>
+    <t>Milentije Mirina</t>
+  </si>
+  <si>
+    <t>Novi Sad</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>21241</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>021655556</t>
+  </si>
+  <si>
+    <t>060111111</t>
+  </si>
+  <si>
+    <t>tc11</t>
+  </si>
+  <si>
+    <t>Verify that user can change his personal informations</t>
+  </si>
+  <si>
+    <t>Click on "MY PERSONAL INFORMATIONS" button</t>
+  </si>
+  <si>
+    <t>Select gender in radio button</t>
+  </si>
+  <si>
+    <t>Enter current password input field</t>
+  </si>
+  <si>
+    <t>Enter email in email input field</t>
+  </si>
+  <si>
+    <t>Personal informations are changed and message is shown</t>
+  </si>
+  <si>
+    <t>Your personal information has been successfully updated.</t>
+  </si>
+  <si>
+    <t>Mrs</t>
+  </si>
+  <si>
+    <t>Milica</t>
+  </si>
+  <si>
+    <t>Tatic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,6 +422,12 @@
       <sz val="8"/>
       <name val="Inherit"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -305,7 +450,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -319,6 +464,8 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -600,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -681,9 +828,541 @@
         <v>49</v>
       </c>
     </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="28.8">
+      <c r="A12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430C568A-1338-4426-8D1B-8E718FAAA921}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="C11" s="4"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF33945-E2D5-446E-9AB4-1BDEA4FC86F1}">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2863E3-3D67-4AA2-B15B-1C9ABB89B19C}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C11" r:id="rId1" xr:uid="{F8B5BEBB-5A2E-454F-8186-69D6284B9DC4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -692,7 +1371,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -829,7 +1508,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -894,6 +1573,9 @@
       <c r="B5" t="s">
         <v>11</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
@@ -987,8 +1669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53627CBA-A9EA-4375-A97F-DE56E1590C9D}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1041,6 +1723,9 @@
       <c r="B5" t="s">
         <v>11</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
@@ -1089,8 +1774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351C5F0A-8086-409C-9CD3-18E618099D4E}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1143,6 +1828,9 @@
       <c r="B5" t="s">
         <v>11</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
@@ -1192,7 +1880,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1245,6 +1933,9 @@
       <c r="B5" t="s">
         <v>11</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
@@ -1273,7 +1964,7 @@
         <v>61</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -1294,7 +1985,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1329,7 +2020,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1347,6 +2038,9 @@
       <c r="B5" t="s">
         <v>11</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
@@ -1364,7 +2058,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1372,10 +2066,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -1395,8 +2089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A775B754-6E45-4D43-AF90-7AAD8A80EC04}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1431,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1449,6 +2143,9 @@
       <c r="B5" t="s">
         <v>11</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
@@ -1466,7 +2163,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1474,10 +2171,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -1486,6 +2183,146 @@
     </row>
     <row r="11" spans="1:7">
       <c r="C11" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A44AFE51-F497-4573-AE4C-384F052D728C}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="C12" s="4"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Test plan.xlsx
+++ b/data/Test plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gliga\eclipse-workspace\SeleniumProjekat\SeleniumRepo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A064DC03-8F94-4ECD-8079-67EEFFC3E7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2A9AB4-8CD7-4F6B-87D8-EEAEF3CC3DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6108" yWindow="2124" windowWidth="15888" windowHeight="9732" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="132" yWindow="1044" windowWidth="15888" windowHeight="9732" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,9 @@
     <sheet name="TC9" sheetId="11" r:id="rId10"/>
     <sheet name="TC10" sheetId="12" r:id="rId11"/>
     <sheet name="TC11" sheetId="13" r:id="rId12"/>
+    <sheet name="TC12" sheetId="14" r:id="rId13"/>
+    <sheet name="TC13" sheetId="15" r:id="rId14"/>
+    <sheet name="TC14" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="132">
   <si>
     <t>Test case</t>
   </si>
@@ -384,6 +387,54 @@
   </si>
   <si>
     <t>Tatic</t>
+  </si>
+  <si>
+    <t>tc12</t>
+  </si>
+  <si>
+    <t>tc13</t>
+  </si>
+  <si>
+    <t>tc14</t>
+  </si>
+  <si>
+    <t>Verify that user can add wishlist</t>
+  </si>
+  <si>
+    <t>Verify that user can add multiple wishlist</t>
+  </si>
+  <si>
+    <t>Verify that user can remove wishlist</t>
+  </si>
+  <si>
+    <t>Click on "MY WISHLISTS" button</t>
+  </si>
+  <si>
+    <t>Enter name of wishlist in name input field</t>
+  </si>
+  <si>
+    <t>first wishlist</t>
+  </si>
+  <si>
+    <t>Wishlist is added and shown on page</t>
+  </si>
+  <si>
+    <t>User is  signed in,steps from test 12 are executed</t>
+  </si>
+  <si>
+    <t>second wishlist</t>
+  </si>
+  <si>
+    <t>Wishlist is added and shown on page below  wishlist from test 12</t>
+  </si>
+  <si>
+    <t>Click on "x" button in column "Delete" ,in row where name is "first wishlist"</t>
+  </si>
+  <si>
+    <t>Click on "OK" button in pop up allert window</t>
+  </si>
+  <si>
+    <t>Wishlist is removed and doesn't exists in wishlist page</t>
   </si>
 </sst>
 </file>
@@ -747,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -858,6 +909,30 @@
       </c>
       <c r="B12" s="2" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1209,7 +1284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2863E3-3D67-4AA2-B15B-1C9ABB89B19C}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1363,6 +1438,294 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849F01F2-B189-40E5-8BEB-CD803F8C2785}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C18E43-A6D5-463D-8BAE-0C4EE6FA6CC7}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7908247-3843-4676-85F8-802A864317B7}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/Test plan.xlsx
+++ b/data/Test plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gliga\eclipse-workspace\SeleniumProjekat\SeleniumRepo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2A9AB4-8CD7-4F6B-87D8-EEAEF3CC3DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39CB1E8-CC79-4CA5-A5D0-E941EE8C7037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="132" yWindow="1044" windowWidth="15888" windowHeight="9732" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="133">
   <si>
     <t>Test case</t>
   </si>
@@ -435,6 +435,9 @@
   </si>
   <si>
     <t>Wishlist is removed and doesn't exists in wishlist page</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
 </sst>
 </file>
@@ -480,12 +483,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -501,7 +510,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -517,6 +526,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -800,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -830,6 +840,9 @@
       <c r="B2" t="s">
         <v>17</v>
       </c>
+      <c r="C2" s="9" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
@@ -838,6 +851,9 @@
       <c r="B3" t="s">
         <v>29</v>
       </c>
+      <c r="C3" s="9" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="49.2" customHeight="1">
       <c r="A4" t="s">
@@ -846,6 +862,9 @@
       <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="C4" s="9" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="28.8">
       <c r="A5" t="s">
@@ -854,6 +873,9 @@
       <c r="B5" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="C5" s="9" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="28.8">
       <c r="A6" t="s">
@@ -862,6 +884,9 @@
       <c r="B6" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="C6" s="9" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="28.8">
       <c r="A7" t="s">
@@ -870,6 +895,9 @@
       <c r="B7" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="C7" s="9" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="28.8">
       <c r="A8" t="s">
@@ -878,6 +906,9 @@
       <c r="B8" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="C8" s="9" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
@@ -886,6 +917,9 @@
       <c r="B9" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="C9" s="9" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
@@ -894,6 +928,9 @@
       <c r="B10" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="C10" s="9" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
@@ -902,6 +939,9 @@
       <c r="B11" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C11" s="9" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="28.8">
       <c r="A12" t="s">
@@ -910,6 +950,9 @@
       <c r="B12" s="2" t="s">
         <v>106</v>
       </c>
+      <c r="C12" s="9" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
@@ -918,6 +961,9 @@
       <c r="B13" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="C13" s="9" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
@@ -926,6 +972,9 @@
       <c r="B14" s="2" t="s">
         <v>120</v>
       </c>
+      <c r="C14" s="9" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
@@ -933,6 +982,9 @@
       </c>
       <c r="B15" s="2" t="s">
         <v>121</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -946,7 +998,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A5" sqref="A5:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -973,7 +1025,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1016,7 +1068,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>60</v>
@@ -1024,7 +1076,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
@@ -1032,7 +1084,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>83</v>
@@ -1067,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF33945-E2D5-446E-9AB4-1BDEA4FC86F1}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1095,7 +1147,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1284,8 +1336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2863E3-3D67-4AA2-B15B-1C9ABB89B19C}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1312,7 +1364,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1396,7 +1448,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>110</v>
@@ -1406,6 +1458,9 @@
       </c>
     </row>
     <row r="12" spans="1:3">
+      <c r="A12">
+        <v>8</v>
+      </c>
       <c r="B12" t="s">
         <v>109</v>
       </c>
@@ -1415,7 +1470,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
         <v>78</v>
@@ -1446,7 +1501,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A5" sqref="A5:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1473,7 +1528,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1524,7 +1579,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>123</v>
@@ -1535,7 +1590,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>78</v>
@@ -1562,8 +1617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C18E43-A6D5-463D-8BAE-0C4EE6FA6CC7}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1590,7 +1645,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1611,7 +1666,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>123</v>
@@ -1622,7 +1677,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
@@ -1650,7 +1705,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1677,7 +1732,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1698,7 +1753,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>129</v>
@@ -1709,7 +1764,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>130</v>
@@ -2032,7 +2087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53627CBA-A9EA-4375-A97F-DE56E1590C9D}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -2137,7 +2192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351C5F0A-8086-409C-9CD3-18E618099D4E}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -2242,8 +2297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85ED7188-B8F0-45DF-A7BC-6468A768B8F0}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2270,7 +2325,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2348,7 +2403,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2375,7 +2430,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2452,8 +2507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A775B754-6E45-4D43-AF90-7AAD8A80EC04}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2480,7 +2535,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2558,7 +2613,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2585,7 +2640,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7">
